--- a/data_voor_swing/aggregatietabellen/refreg_gewest.xlsx
+++ b/data_voor_swing/aggregatietabellen/refreg_gewest.xlsx
@@ -1,88 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Tijdelijk werkluik\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr showObjects="all" updateLinks="userSet" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="18072" windowHeight="12528"/>
+    <workbookView visibility="visible" xWindow="480" yWindow="75" windowWidth="18075" windowHeight="12525" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="refreg_provincie" sheetId="1" r:id="rId1"/>
+    <sheet name="refreg_gewest" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" calcMode="auto" refMode="A1" iterateCount="100"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>REFREG</t>
-  </si>
-  <si>
-    <t>REFREG01</t>
-  </si>
-  <si>
-    <t>REFREG02</t>
-  </si>
-  <si>
-    <t>REFREG03</t>
-  </si>
-  <si>
-    <t>REFREG04</t>
-  </si>
-  <si>
-    <t>REFREG05</t>
-  </si>
-  <si>
-    <t>REFREG06</t>
-  </si>
-  <si>
-    <t>REFREG07</t>
-  </si>
-  <si>
-    <t>REFREG08</t>
-  </si>
-  <si>
-    <t>REFREG09</t>
-  </si>
-  <si>
-    <t>REFREG10</t>
-  </si>
-  <si>
-    <t>REFREG11</t>
-  </si>
-  <si>
-    <t>REFREG12</t>
-  </si>
-  <si>
-    <t>REFREG13</t>
-  </si>
-  <si>
-    <t>REFREG14</t>
-  </si>
-  <si>
-    <t>REFREG15</t>
-  </si>
-  <si>
-    <t>REFREG91</t>
-  </si>
-  <si>
-    <t>REFREG99</t>
-  </si>
-  <si>
-    <t>gewest</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="17">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000"/>
+    <numFmt numFmtId="173" formatCode="0.000000000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000000"/>
+    <numFmt numFmtId="175" formatCode="0.00000000000"/>
+    <numFmt numFmtId="176" formatCode="0.000000000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="179" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="180" formatCode="0.0000000000000000"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,30 +63,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,9 +138,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,10 +172,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,10 +206,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -417,157 +381,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>99999</v>
+    <row r="1" spans="1:2" s="0" outlineLevel="0">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>REFREG</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>gewest</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="0" outlineLevel="0">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>REFREG01</t>
+        </is>
+      </c>
+      <c r="B2" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="0" outlineLevel="0">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>REFREG02</t>
+        </is>
+      </c>
+      <c r="B3" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="0" outlineLevel="0">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>REFREG03</t>
+        </is>
+      </c>
+      <c r="B4" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="0" outlineLevel="0">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>REFREG04</t>
+        </is>
+      </c>
+      <c r="B5" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="0" outlineLevel="0">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>REFREG05</t>
+        </is>
+      </c>
+      <c r="B6" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="0" outlineLevel="0">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>REFREG06</t>
+        </is>
+      </c>
+      <c r="B7" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="0" outlineLevel="0">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>REFREG07</t>
+        </is>
+      </c>
+      <c r="B8" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="0" outlineLevel="0">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>REFREG08</t>
+        </is>
+      </c>
+      <c r="B9" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="0" outlineLevel="0">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>REFREG09</t>
+        </is>
+      </c>
+      <c r="B10" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="0" outlineLevel="0">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>REFREG10</t>
+        </is>
+      </c>
+      <c r="B11" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="0" outlineLevel="0">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>REFREG11</t>
+        </is>
+      </c>
+      <c r="B12" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="0" outlineLevel="0">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>REFREG12</t>
+        </is>
+      </c>
+      <c r="B13" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="0" outlineLevel="0">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>REFREG13</t>
+        </is>
+      </c>
+      <c r="B14" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="0" outlineLevel="0">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>REFREG14</t>
+        </is>
+      </c>
+      <c r="B15" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="0" outlineLevel="0">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>REFREG15</t>
+        </is>
+      </c>
+      <c r="B16" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="0" outlineLevel="0">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>REFREG91</t>
+        </is>
+      </c>
+      <c r="B17" s="23">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/data_voor_swing/aggregatietabellen/refreg_gewest.xlsx
+++ b/data_voor_swing/aggregatietabellen/refreg_gewest.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,6 +560,26 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="18" spans="1:2" s="0" outlineLevel="0">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>REFREG99</t>
+        </is>
+      </c>
+      <c r="B18" s="23">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="0" outlineLevel="0">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>REFREG99</t>
+        </is>
+      </c>
+      <c r="B19" s="23">
+        <v>99999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_voor_swing/aggregatietabellen/refreg_gewest.xlsx
+++ b/data_voor_swing/aggregatietabellen/refreg_gewest.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,11 +563,11 @@
     <row r="18" spans="1:2" s="0" outlineLevel="0">
       <c r="A18" t="inlineStr">
         <is>
-          <t>REFREG99</t>
+          <t>REFREG93</t>
         </is>
       </c>
       <c r="B18" s="23">
-        <v>4000</v>
+        <v>99993</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="0" outlineLevel="0">
@@ -577,6 +577,16 @@
         </is>
       </c>
       <c r="B19" s="23">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="0" outlineLevel="0">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>REFREG99</t>
+        </is>
+      </c>
+      <c r="B20" s="23">
         <v>99999</v>
       </c>
     </row>

--- a/data_voor_swing/aggregatietabellen/refreg_gewest.xlsx
+++ b/data_voor_swing/aggregatietabellen/refreg_gewest.xlsx
@@ -1,40 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr showObjects="all" updateLinks="userSet" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\data_voor_swing\aggregatietabellen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22690678-0B08-402E-9144-BC6156314B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" xWindow="480" yWindow="75" windowWidth="18075" windowHeight="12525" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="refreg_gewest" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="refreg_gewest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="auto" refMode="A1" iterateCount="100"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>REFREG</t>
+  </si>
+  <si>
+    <t>gewest</t>
+  </si>
+  <si>
+    <t>REFREG01</t>
+  </si>
+  <si>
+    <t>REFREG02</t>
+  </si>
+  <si>
+    <t>REFREG03</t>
+  </si>
+  <si>
+    <t>REFREG04</t>
+  </si>
+  <si>
+    <t>REFREG05</t>
+  </si>
+  <si>
+    <t>REFREG06</t>
+  </si>
+  <si>
+    <t>REFREG07</t>
+  </si>
+  <si>
+    <t>REFREG08</t>
+  </si>
+  <si>
+    <t>REFREG09</t>
+  </si>
+  <si>
+    <t>REFREG10</t>
+  </si>
+  <si>
+    <t>REFREG11</t>
+  </si>
+  <si>
+    <t>REFREG12</t>
+  </si>
+  <si>
+    <t>REFREG13</t>
+  </si>
+  <si>
+    <t>REFREG14</t>
+  </si>
+  <si>
+    <t>REFREG15</t>
+  </si>
+  <si>
+    <t>REFREG91</t>
+  </si>
+  <si>
+    <t>REFREG99</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="17">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000"/>
-    <numFmt numFmtId="172" formatCode="0.00000000"/>
-    <numFmt numFmtId="173" formatCode="0.000000000"/>
-    <numFmt numFmtId="174" formatCode="0.0000000000"/>
-    <numFmt numFmtId="175" formatCode="0.00000000000"/>
-    <numFmt numFmtId="176" formatCode="0.000000000000"/>
-    <numFmt numFmtId="177" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="178" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="179" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="180" formatCode="0.0000000000000000"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,44 +112,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,7 +173,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -172,6 +207,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -206,9 +242,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -381,212 +418,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="0" outlineLevel="0">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>REFREG</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>gewest</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="0" outlineLevel="0">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>REFREG01</t>
-        </is>
-      </c>
-      <c r="B2" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="0" outlineLevel="0">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>REFREG02</t>
-        </is>
-      </c>
-      <c r="B3" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="0" outlineLevel="0">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>REFREG03</t>
-        </is>
-      </c>
-      <c r="B4" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="0" outlineLevel="0">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>REFREG04</t>
-        </is>
-      </c>
-      <c r="B5" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="0" outlineLevel="0">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>REFREG05</t>
-        </is>
-      </c>
-      <c r="B6" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="0" outlineLevel="0">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>REFREG06</t>
-        </is>
-      </c>
-      <c r="B7" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="0" outlineLevel="0">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>REFREG07</t>
-        </is>
-      </c>
-      <c r="B8" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="0" outlineLevel="0">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>REFREG08</t>
-        </is>
-      </c>
-      <c r="B9" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="0" outlineLevel="0">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>REFREG09</t>
-        </is>
-      </c>
-      <c r="B10" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="0" outlineLevel="0">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>REFREG10</t>
-        </is>
-      </c>
-      <c r="B11" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="0" outlineLevel="0">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>REFREG11</t>
-        </is>
-      </c>
-      <c r="B12" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="0" outlineLevel="0">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>REFREG12</t>
-        </is>
-      </c>
-      <c r="B13" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="0" outlineLevel="0">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>REFREG13</t>
-        </is>
-      </c>
-      <c r="B14" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="0" outlineLevel="0">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>REFREG14</t>
-        </is>
-      </c>
-      <c r="B15" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="0" outlineLevel="0">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>REFREG15</t>
-        </is>
-      </c>
-      <c r="B16" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="0" outlineLevel="0">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>REFREG91</t>
-        </is>
-      </c>
-      <c r="B17" s="23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="0" outlineLevel="0">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>REFREG93</t>
-        </is>
-      </c>
-      <c r="B18" s="23">
-        <v>99993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="0" outlineLevel="0">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>REFREG99</t>
-        </is>
-      </c>
-      <c r="B19" s="23">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="0" outlineLevel="0">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>REFREG99</t>
-        </is>
-      </c>
-      <c r="B20" s="23">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
         <v>99999</v>
       </c>
     </row>

--- a/data_voor_swing/aggregatietabellen/refreg_gewest.xlsx
+++ b/data_voor_swing/aggregatietabellen/refreg_gewest.xlsx
@@ -1,89 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\gebiedsniveaus\data_voor_swing\aggregatietabellen\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22690678-0B08-402E-9144-BC6156314B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr showObjects="all" updateLinks="userSet" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" xWindow="480" yWindow="75" windowWidth="18075" windowHeight="12525" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="refreg_gewest" sheetId="1" r:id="rId1"/>
+    <sheet name="refreg_gewest" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" calcMode="auto" refMode="A1" iterateCount="100"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>REFREG</t>
-  </si>
-  <si>
-    <t>gewest</t>
-  </si>
-  <si>
-    <t>REFREG01</t>
-  </si>
-  <si>
-    <t>REFREG02</t>
-  </si>
-  <si>
-    <t>REFREG03</t>
-  </si>
-  <si>
-    <t>REFREG04</t>
-  </si>
-  <si>
-    <t>REFREG05</t>
-  </si>
-  <si>
-    <t>REFREG06</t>
-  </si>
-  <si>
-    <t>REFREG07</t>
-  </si>
-  <si>
-    <t>REFREG08</t>
-  </si>
-  <si>
-    <t>REFREG09</t>
-  </si>
-  <si>
-    <t>REFREG10</t>
-  </si>
-  <si>
-    <t>REFREG11</t>
-  </si>
-  <si>
-    <t>REFREG12</t>
-  </si>
-  <si>
-    <t>REFREG13</t>
-  </si>
-  <si>
-    <t>REFREG14</t>
-  </si>
-  <si>
-    <t>REFREG15</t>
-  </si>
-  <si>
-    <t>REFREG91</t>
-  </si>
-  <si>
-    <t>REFREG99</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="17">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000"/>
+    <numFmt numFmtId="173" formatCode="0.000000000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000000"/>
+    <numFmt numFmtId="175" formatCode="0.00000000000"/>
+    <numFmt numFmtId="176" formatCode="0.000000000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="179" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="180" formatCode="0.0000000000000000"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,30 +63,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,7 +138,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -207,7 +172,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -242,10 +206,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,159 +381,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="1" spans="1:2" s="0" outlineLevel="0">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>REFREG</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>gewest</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="0" outlineLevel="0">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>REFREG01</t>
+        </is>
+      </c>
+      <c r="B2" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="0" outlineLevel="0">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>REFREG02</t>
+        </is>
+      </c>
+      <c r="B3" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="0" outlineLevel="0">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>REFREG03</t>
+        </is>
+      </c>
+      <c r="B4" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="0" outlineLevel="0">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>REFREG04</t>
+        </is>
+      </c>
+      <c r="B5" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="0" outlineLevel="0">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>REFREG05</t>
+        </is>
+      </c>
+      <c r="B6" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="0" outlineLevel="0">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>REFREG06</t>
+        </is>
+      </c>
+      <c r="B7" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="0" outlineLevel="0">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>REFREG07</t>
+        </is>
+      </c>
+      <c r="B8" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="0" outlineLevel="0">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>REFREG08</t>
+        </is>
+      </c>
+      <c r="B9" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="0" outlineLevel="0">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>REFREG09</t>
+        </is>
+      </c>
+      <c r="B10" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="0" outlineLevel="0">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>REFREG10</t>
+        </is>
+      </c>
+      <c r="B11" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="0" outlineLevel="0">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>REFREG11</t>
+        </is>
+      </c>
+      <c r="B12" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="0" outlineLevel="0">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>REFREG12</t>
+        </is>
+      </c>
+      <c r="B13" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="0" outlineLevel="0">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>REFREG13</t>
+        </is>
+      </c>
+      <c r="B14" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="0" outlineLevel="0">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>REFREG14</t>
+        </is>
+      </c>
+      <c r="B15" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="0" outlineLevel="0">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>REFREG15</t>
+        </is>
+      </c>
+      <c r="B16" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="0" outlineLevel="0">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>REFREG91</t>
+        </is>
+      </c>
+      <c r="B17" s="23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="0" outlineLevel="0">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>REFREG99</t>
+        </is>
+      </c>
+      <c r="B18" s="23">
         <v>99999</v>
       </c>
     </row>
